--- a/WebContent/template/template.xlsx
+++ b/WebContent/template/template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>EMSTF Resident Support &amp; Computer Operation Support Services Team Roster</t>
   </si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>No. of working day</t>
-  </si>
-  <si>
-    <t>h</t>
   </si>
   <si>
     <t>Vacant Shifts</t>
@@ -845,7 +842,7 @@
   <dimension ref="A1:AQ18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="AH12" sqref="AH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -859,11 +856,12 @@
     <col min="35" max="35" width="8.25" customWidth="1"/>
     <col min="36" max="36" width="8.625" customWidth="1"/>
     <col min="37" max="37" width="7.875" customWidth="1"/>
-    <col min="38" max="38" width="4.5" customWidth="1"/>
-    <col min="39" max="39" width="5.625" customWidth="1"/>
-    <col min="40" max="41" width="4.5" customWidth="1"/>
-    <col min="42" max="42" width="3.375" customWidth="1"/>
-    <col min="43" max="43" width="6.25" customWidth="1"/>
+    <col min="38" max="38" width="4.5" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="5.625" hidden="1" customWidth="1"/>
+    <col min="40" max="41" width="4.5" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="3.375" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="6.25" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="19.5">
@@ -1127,7 +1125,7 @@
     </row>
     <row r="7" spans="1:43">
       <c r="A7" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -1159,9 +1157,6 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
       <c r="AE7" s="10"/>
-      <c r="AF7" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="8" spans="1:43" ht="18.75">
       <c r="A8" s="11" t="s">

--- a/WebContent/template/template.xlsx
+++ b/WebContent/template/template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="4200" windowWidth="28035" windowHeight="12345"/>
+    <workbookView xWindow="2076" yWindow="4200" windowWidth="23256" windowHeight="12348"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -179,13 +179,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="\+#0.##;\-#0.##"/>
+    <numFmt numFmtId="176" formatCode="\+#0.##;\-#0.##"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -225,7 +225,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -248,6 +248,13 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -406,7 +413,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -842,29 +849,29 @@
   <dimension ref="A1:AQ18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH12" sqref="AH12"/>
+      <selection activeCell="AG7" sqref="AG7:AK7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="25.625" customWidth="1"/>
-    <col min="2" max="21" width="3.125" customWidth="1"/>
-    <col min="22" max="22" width="2.875" customWidth="1"/>
-    <col min="23" max="32" width="3.125" customWidth="1"/>
-    <col min="33" max="33" width="10.125" customWidth="1"/>
-    <col min="34" max="34" width="8.875" customWidth="1"/>
-    <col min="35" max="35" width="8.25" customWidth="1"/>
-    <col min="36" max="36" width="8.625" customWidth="1"/>
-    <col min="37" max="37" width="7.875" customWidth="1"/>
-    <col min="38" max="38" width="4.5" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="5.625" hidden="1" customWidth="1"/>
-    <col min="40" max="41" width="4.5" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="3.375" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="6.25" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="21" width="3.109375" customWidth="1"/>
+    <col min="22" max="22" width="2.88671875" customWidth="1"/>
+    <col min="23" max="32" width="3.109375" customWidth="1"/>
+    <col min="33" max="33" width="10.109375" customWidth="1"/>
+    <col min="34" max="34" width="8.88671875" customWidth="1"/>
+    <col min="35" max="35" width="8.21875" customWidth="1"/>
+    <col min="36" max="36" width="8.6640625" customWidth="1"/>
+    <col min="37" max="37" width="7.88671875" customWidth="1"/>
+    <col min="38" max="38" width="4.44140625" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="5.6640625" hidden="1" customWidth="1"/>
+    <col min="40" max="41" width="4.44140625" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="3.33203125" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="6.21875" hidden="1" customWidth="1"/>
     <col min="44" max="44" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="19.5">
+    <row r="1" spans="1:43" ht="19.8">
       <c r="A1" s="2"/>
       <c r="B1" s="32" t="s">
         <v>0</v>
@@ -911,7 +918,7 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
     </row>
-    <row r="2" spans="1:43" ht="18.75">
+    <row r="2" spans="1:43" ht="17.399999999999999">
       <c r="A2" s="1"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -1058,7 +1065,7 @@
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
     </row>
-    <row r="6" spans="1:43" ht="31.5">
+    <row r="6" spans="1:43" ht="31.2">
       <c r="A6" s="22" t="s">
         <v>40</v>
       </c>
@@ -1157,8 +1164,14 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
       <c r="AE7" s="10"/>
-    </row>
-    <row r="8" spans="1:43" ht="18.75">
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+    </row>
+    <row r="8" spans="1:43" ht="18">
       <c r="A8" s="11" t="s">
         <v>2</v>
       </c>
@@ -1192,7 +1205,7 @@
       <c r="AA8" s="31"/>
       <c r="AB8" s="31"/>
     </row>
-    <row r="9" spans="1:43" ht="18.75">
+    <row r="9" spans="1:43" ht="18">
       <c r="A9" s="13" t="s">
         <v>4</v>
       </c>
@@ -1226,7 +1239,7 @@
       <c r="AA9" s="31"/>
       <c r="AB9" s="31"/>
     </row>
-    <row r="10" spans="1:43" ht="18.75">
+    <row r="10" spans="1:43" ht="18">
       <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
@@ -1258,7 +1271,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:43" ht="18.75">
+    <row r="11" spans="1:43" ht="18">
       <c r="A11" s="14" t="s">
         <v>7</v>
       </c>
@@ -1296,7 +1309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:43" ht="18.75">
+    <row r="12" spans="1:43" ht="18">
       <c r="A12" s="16" t="s">
         <v>11</v>
       </c>
@@ -1332,7 +1345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:43" ht="18.75">
+    <row r="13" spans="1:43" ht="18">
       <c r="A13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1368,7 +1381,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:43" ht="18.75">
+    <row r="14" spans="1:43" ht="18">
       <c r="A14" s="16" t="s">
         <v>17</v>
       </c>
@@ -1404,7 +1417,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:43" ht="18.75">
+    <row r="15" spans="1:43" ht="18">
       <c r="A15" s="16" t="s">
         <v>20</v>
       </c>
@@ -1436,7 +1449,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:43" ht="18.75">
+    <row r="16" spans="1:43" ht="18">
       <c r="A16" s="18" t="s">
         <v>21</v>
       </c>
@@ -1468,7 +1481,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" ht="18.75">
+    <row r="17" spans="1:28" ht="18">
       <c r="A17" s="12" t="s">
         <v>22</v>
       </c>
@@ -1543,6 +1556,7 @@
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="B2:AF2"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -1556,7 +1570,7 @@
       <selection activeCell="N13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
     <row r="1" spans="1:43">
       <c r="A1" t="s">
@@ -1618,7 +1632,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:43" ht="18.75">
+    <row r="13" spans="1:43" ht="18">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1691,6 +1705,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="B13:AF13">
     <cfRule type="cellIs" dxfId="3" priority="104" operator="equal">
       <formula>"c"</formula>
@@ -1716,8 +1731,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WebContent/template/template.xlsx
+++ b/WebContent/template/template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="4200" windowWidth="28035" windowHeight="12345"/>
+    <workbookView xWindow="2076" yWindow="4200" windowWidth="23256" windowHeight="12348"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -179,13 +179,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="\+#0.##;\-#0.##"/>
+    <numFmt numFmtId="176" formatCode="\+#0.##;\-#0.##"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -225,7 +225,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -248,6 +248,13 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -406,7 +413,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -842,29 +849,29 @@
   <dimension ref="A1:AQ18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH12" sqref="AH12"/>
+      <selection activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="25.625" customWidth="1"/>
-    <col min="2" max="21" width="3.125" customWidth="1"/>
-    <col min="22" max="22" width="2.875" customWidth="1"/>
-    <col min="23" max="32" width="3.125" customWidth="1"/>
-    <col min="33" max="33" width="10.125" customWidth="1"/>
-    <col min="34" max="34" width="8.875" customWidth="1"/>
-    <col min="35" max="35" width="8.25" customWidth="1"/>
-    <col min="36" max="36" width="8.625" customWidth="1"/>
-    <col min="37" max="37" width="7.875" customWidth="1"/>
-    <col min="38" max="38" width="4.5" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="5.625" hidden="1" customWidth="1"/>
-    <col min="40" max="41" width="4.5" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="3.375" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="6.25" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="21" width="3.109375" customWidth="1"/>
+    <col min="22" max="22" width="2.88671875" customWidth="1"/>
+    <col min="23" max="32" width="3.109375" customWidth="1"/>
+    <col min="33" max="33" width="10.109375" customWidth="1"/>
+    <col min="34" max="34" width="8.88671875" customWidth="1"/>
+    <col min="35" max="35" width="8.21875" customWidth="1"/>
+    <col min="36" max="36" width="8.6640625" customWidth="1"/>
+    <col min="37" max="37" width="7.88671875" customWidth="1"/>
+    <col min="38" max="38" width="4.44140625" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="5.6640625" hidden="1" customWidth="1"/>
+    <col min="40" max="41" width="4.44140625" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="3.33203125" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="6.21875" hidden="1" customWidth="1"/>
     <col min="44" max="44" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="19.5">
+    <row r="1" spans="1:43" ht="19.8">
       <c r="A1" s="2"/>
       <c r="B1" s="32" t="s">
         <v>0</v>
@@ -911,7 +918,7 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
     </row>
-    <row r="2" spans="1:43" ht="18.75">
+    <row r="2" spans="1:43" ht="17.399999999999999">
       <c r="A2" s="1"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -1058,7 +1065,7 @@
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
     </row>
-    <row r="6" spans="1:43" ht="31.5">
+    <row r="6" spans="1:43" ht="31.2">
       <c r="A6" s="22" t="s">
         <v>40</v>
       </c>
@@ -1157,8 +1164,9 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
       <c r="AE7" s="10"/>
-    </row>
-    <row r="8" spans="1:43" ht="18.75">
+      <c r="AF7" s="10"/>
+    </row>
+    <row r="8" spans="1:43" ht="18">
       <c r="A8" s="11" t="s">
         <v>2</v>
       </c>
@@ -1192,7 +1200,7 @@
       <c r="AA8" s="31"/>
       <c r="AB8" s="31"/>
     </row>
-    <row r="9" spans="1:43" ht="18.75">
+    <row r="9" spans="1:43" ht="18">
       <c r="A9" s="13" t="s">
         <v>4</v>
       </c>
@@ -1226,7 +1234,7 @@
       <c r="AA9" s="31"/>
       <c r="AB9" s="31"/>
     </row>
-    <row r="10" spans="1:43" ht="18.75">
+    <row r="10" spans="1:43" ht="18">
       <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
@@ -1258,7 +1266,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:43" ht="18.75">
+    <row r="11" spans="1:43" ht="18">
       <c r="A11" s="14" t="s">
         <v>7</v>
       </c>
@@ -1296,7 +1304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:43" ht="18.75">
+    <row r="12" spans="1:43" ht="18">
       <c r="A12" s="16" t="s">
         <v>11</v>
       </c>
@@ -1332,7 +1340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:43" ht="18.75">
+    <row r="13" spans="1:43" ht="18">
       <c r="A13" s="16" t="s">
         <v>14</v>
       </c>
@@ -1368,7 +1376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:43" ht="18.75">
+    <row r="14" spans="1:43" ht="18">
       <c r="A14" s="16" t="s">
         <v>17</v>
       </c>
@@ -1404,7 +1412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:43" ht="18.75">
+    <row r="15" spans="1:43" ht="18">
       <c r="A15" s="16" t="s">
         <v>20</v>
       </c>
@@ -1436,7 +1444,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:43" ht="18.75">
+    <row r="16" spans="1:43" ht="18">
       <c r="A16" s="18" t="s">
         <v>21</v>
       </c>
@@ -1468,7 +1476,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" ht="18.75">
+    <row r="17" spans="1:28" ht="18">
       <c r="A17" s="12" t="s">
         <v>22</v>
       </c>
@@ -1543,6 +1551,7 @@
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="B2:AF2"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -1556,7 +1565,7 @@
       <selection activeCell="N13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
     <row r="1" spans="1:43">
       <c r="A1" t="s">
@@ -1618,7 +1627,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:43" ht="18.75">
+    <row r="13" spans="1:43" ht="18">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1691,6 +1700,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="B13:AF13">
     <cfRule type="cellIs" dxfId="3" priority="104" operator="equal">
       <formula>"c"</formula>
@@ -1716,8 +1726,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WebContent/template/template.xlsx
+++ b/WebContent/template/template.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\cstsang\workspace\rosterWeb\WebContent\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F150C288-13FB-44DA-9104-0977375CFFD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2076" yWindow="4200" windowWidth="23256" windowHeight="12348"/>
+    <workbookView xWindow="2070" yWindow="4200" windowWidth="23250" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -21,9 +27,6 @@
     <t>EMSTF Resident Support &amp; Computer Operation Support Services Team Roster</t>
   </si>
   <si>
-    <t>Approved by SSO(F)5:</t>
-  </si>
-  <si>
     <t>a : 0800H - 1700H</t>
   </si>
   <si>
@@ -45,34 +48,22 @@
     <t>Distrubution List :</t>
   </si>
   <si>
-    <t>SSO(F)5</t>
-  </si>
-  <si>
     <t>CSA(CS)</t>
   </si>
   <si>
     <t>d : 0800H - 1800H (on weekdays)</t>
   </si>
   <si>
-    <t>SO(F)51</t>
-  </si>
-  <si>
     <t>KP</t>
   </si>
   <si>
     <t>d1 : 0800H - 1700H (on weekdays)</t>
   </si>
   <si>
-    <t>SEO(F)51</t>
-  </si>
-  <si>
     <t>CLK</t>
   </si>
   <si>
     <t>d2 : 0900H - 1800H (on weekdays)</t>
-  </si>
-  <si>
-    <t>SEO(F)52</t>
   </si>
   <si>
     <t>GR</t>
@@ -172,16 +163,36 @@
   </si>
   <si>
     <t>Vacant Shifts</t>
+  </si>
+  <si>
+    <t>Approved by SSO(R)5:</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSO(R)5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>SO(R)51</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEO(R)51</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEO(R)52</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="\+#0.##;\-#0.##"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -515,8 +526,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 3" xfId="1"/>
-    <cellStyle name="一般 4" xfId="2"/>
+    <cellStyle name="一般 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -555,6 +566,14 @@
       <color rgb="FFCCECFF"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -601,7 +620,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -633,9 +652,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -667,6 +704,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -842,36 +897,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AQ18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="21" width="3.109375" customWidth="1"/>
-    <col min="22" max="22" width="2.88671875" customWidth="1"/>
-    <col min="23" max="32" width="3.109375" customWidth="1"/>
-    <col min="33" max="33" width="10.109375" customWidth="1"/>
-    <col min="34" max="34" width="8.88671875" customWidth="1"/>
-    <col min="35" max="35" width="8.21875" customWidth="1"/>
-    <col min="36" max="36" width="8.6640625" customWidth="1"/>
-    <col min="37" max="37" width="7.88671875" customWidth="1"/>
-    <col min="38" max="38" width="4.44140625" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="5.6640625" hidden="1" customWidth="1"/>
-    <col min="40" max="41" width="4.44140625" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="3.33203125" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="6.21875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="2" max="21" width="3.125" customWidth="1"/>
+    <col min="22" max="22" width="2.875" customWidth="1"/>
+    <col min="23" max="32" width="3.125" customWidth="1"/>
+    <col min="33" max="33" width="10.125" customWidth="1"/>
+    <col min="34" max="34" width="8.875" customWidth="1"/>
+    <col min="35" max="35" width="8.25" customWidth="1"/>
+    <col min="36" max="36" width="8.625" customWidth="1"/>
+    <col min="37" max="37" width="7.875" customWidth="1"/>
+    <col min="38" max="38" width="4.5" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="5.625" hidden="1" customWidth="1"/>
+    <col min="40" max="41" width="4.5" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="3.375" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="6.25" hidden="1" customWidth="1"/>
     <col min="44" max="44" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="19.8">
+    <row r="1" spans="1:43" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="32" t="s">
         <v>0</v>
@@ -918,7 +973,7 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
     </row>
-    <row r="2" spans="1:43" ht="17.399999999999999">
+    <row r="2" spans="1:43" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -952,7 +1007,7 @@
       <c r="AE2" s="41"/>
       <c r="AF2" s="41"/>
       <c r="AG2" s="29" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="AH2" s="29"/>
       <c r="AI2" s="30"/>
@@ -965,9 +1020,9 @@
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -1012,9 +1067,9 @@
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
     </row>
-    <row r="5" spans="1:43" ht="15.75" customHeight="1">
+    <row r="5" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
@@ -1048,13 +1103,13 @@
       <c r="AE5" s="27"/>
       <c r="AF5" s="28"/>
       <c r="AG5" s="36" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AH5" s="36" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AI5" s="38" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AJ5" s="39"/>
       <c r="AK5" s="25"/>
@@ -1065,9 +1120,9 @@
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
     </row>
-    <row r="6" spans="1:43" ht="31.2">
+    <row r="6" spans="1:43" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
@@ -1103,36 +1158,36 @@
       <c r="AG6" s="37"/>
       <c r="AH6" s="37"/>
       <c r="AI6" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ6" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK6" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AJ6" s="24" t="s">
+      <c r="AO6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AK6" s="24" t="s">
+      <c r="AP6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AL6" s="1" t="s">
+      <c r="AQ6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AM6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43">
-      <c r="A7" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -1166,9 +1221,9 @@
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
     </row>
-    <row r="8" spans="1:43" ht="18">
+    <row r="8" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -1188,7 +1243,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T8" s="31"/>
       <c r="U8" s="31"/>
@@ -1200,9 +1255,9 @@
       <c r="AA8" s="31"/>
       <c r="AB8" s="31"/>
     </row>
-    <row r="9" spans="1:43" ht="18">
+    <row r="9" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -1222,7 +1277,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T9" s="31"/>
       <c r="U9" s="31"/>
@@ -1234,9 +1289,9 @@
       <c r="AA9" s="31"/>
       <c r="AB9" s="31"/>
     </row>
-    <row r="10" spans="1:43" ht="18">
+    <row r="10" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -1266,9 +1321,9 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:43" ht="18">
+    <row r="11" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -1288,25 +1343,25 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43" ht="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -1331,18 +1386,18 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43" ht="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1367,18 +1422,18 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43" ht="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -1403,18 +1458,18 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43" ht="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -1444,9 +1499,9 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:43" ht="18">
+    <row r="16" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -1476,9 +1531,9 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" ht="18">
+    <row r="17" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1508,7 +1563,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1558,76 +1613,76 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AQ13"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="N13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
-      <c r="A2" t="s">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
-      <c r="A3" t="s">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
-      <c r="A4" t="s">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
-      <c r="A5" t="s">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
-      <c r="A6" t="s">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
-      <c r="A7" t="s">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43" ht="18">
+    <row r="13" spans="1:43" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1721,12 +1776,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WebContent/template/template.xlsx
+++ b/WebContent/template/template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20370"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\cstsang\workspace\rosterWeb\WebContent\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Roy.DESKTOP-80CAPLI\workspace\rosterWeb\WebContent\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F150C288-13FB-44DA-9104-0977375CFFD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="4200" windowWidth="23250" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2066" yWindow="4195" windowWidth="23253" windowHeight="12346"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,10 +130,6 @@
     <t>Hour Off Due</t>
   </si>
   <si>
-    <t>Resident Support
-Team Members</t>
-  </si>
-  <si>
     <t>Last Month</t>
   </si>
   <si>
@@ -183,20 +178,25 @@
   <si>
     <t>SEO(R)52</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                              Date 
+Member .</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="\+#0.##;\-#0.##"/>
+    <numFmt numFmtId="164" formatCode="\+#0.##;\-#0.##"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -236,7 +236,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -262,10 +262,24 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -318,7 +332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -401,6 +415,23 @@
         <color indexed="64"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="3">
@@ -424,7 +455,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -465,9 +496,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -523,11 +551,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 3" xfId="1"/>
+    <cellStyle name="一般 4" xfId="2"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -653,23 +684,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -705,23 +719,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -897,70 +894,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AQ18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.65"/>
   <cols>
-    <col min="1" max="1" width="25.625" customWidth="1"/>
-    <col min="2" max="21" width="3.125" customWidth="1"/>
-    <col min="22" max="22" width="2.875" customWidth="1"/>
-    <col min="23" max="32" width="3.125" customWidth="1"/>
-    <col min="33" max="33" width="10.125" customWidth="1"/>
-    <col min="34" max="34" width="8.875" customWidth="1"/>
-    <col min="35" max="35" width="8.25" customWidth="1"/>
-    <col min="36" max="36" width="8.625" customWidth="1"/>
-    <col min="37" max="37" width="7.875" customWidth="1"/>
+    <col min="1" max="1" width="25.59765625" customWidth="1"/>
+    <col min="2" max="21" width="3.09765625" customWidth="1"/>
+    <col min="22" max="22" width="2.8984375" customWidth="1"/>
+    <col min="23" max="32" width="3.09765625" customWidth="1"/>
+    <col min="33" max="33" width="10.09765625" customWidth="1"/>
+    <col min="34" max="34" width="8.8984375" customWidth="1"/>
+    <col min="35" max="35" width="8.19921875" customWidth="1"/>
+    <col min="36" max="36" width="8.59765625" customWidth="1"/>
+    <col min="37" max="37" width="7.8984375" customWidth="1"/>
     <col min="38" max="38" width="4.5" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="5.625" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="5.59765625" hidden="1" customWidth="1"/>
     <col min="40" max="41" width="4.5" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="3.375" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="6.25" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="3.3984375" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="6.19921875" hidden="1" customWidth="1"/>
     <col min="44" max="44" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" ht="18.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
@@ -973,46 +970,46 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
     </row>
-    <row r="2" spans="1:43" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" ht="17.55">
       <c r="A2" s="1"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
@@ -1020,46 +1017,46 @@
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43">
       <c r="A4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="34"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
@@ -1067,52 +1064,52 @@
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
     </row>
-    <row r="5" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" ht="15.85" customHeight="1">
       <c r="A5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="27"/>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="36" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="AH5" s="36" t="s">
+      <c r="AH5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="AI5" s="38" t="s">
+      <c r="AI5" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="AJ5" s="39"/>
-      <c r="AK5" s="25"/>
+      <c r="AJ5" s="38"/>
+      <c r="AK5" s="24"/>
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
@@ -1120,9 +1117,9 @@
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
     </row>
-    <row r="6" spans="1:43" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>35</v>
+    <row r="6" spans="1:43" ht="31.3">
+      <c r="A6" s="41" t="s">
+        <v>50</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
@@ -1133,7 +1130,7 @@
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
-      <c r="K6" s="23"/>
+      <c r="K6" s="22"/>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
@@ -1155,39 +1152,39 @@
       <c r="AD6" s="20"/>
       <c r="AE6" s="20"/>
       <c r="AF6" s="21"/>
-      <c r="AG6" s="37"/>
-      <c r="AH6" s="37"/>
-      <c r="AI6" s="24" t="s">
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AJ6" s="24" t="s">
+      <c r="AK6" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AK6" s="24" t="s">
+      <c r="AL6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AL6" s="1" t="s">
+      <c r="AM6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AM6" s="1" t="s">
+      <c r="AN6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AN6" s="1" t="s">
+      <c r="AO6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AO6" s="1" t="s">
+      <c r="AP6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AP6" s="1" t="s">
+      <c r="AQ6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AQ6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:43">
+      <c r="A7" s="9" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -1221,7 +1218,7 @@
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
     </row>
-    <row r="8" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" ht="17.55">
       <c r="A8" s="11" t="s">
         <v>1</v>
       </c>
@@ -1242,20 +1239,20 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="31" t="s">
+      <c r="S8" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-    </row>
-    <row r="9" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+    </row>
+    <row r="9" spans="1:43" ht="17.55">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -1276,20 +1273,20 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="31" t="s">
+      <c r="S9" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-    </row>
-    <row r="10" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+    </row>
+    <row r="10" spans="1:43" ht="17.55">
       <c r="A10" s="13" t="s">
         <v>5</v>
       </c>
@@ -1321,7 +1318,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" ht="17.55">
       <c r="A11" s="14" t="s">
         <v>6</v>
       </c>
@@ -1350,7 +1347,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
@@ -1359,7 +1356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" ht="17.55">
       <c r="A12" s="16" t="s">
         <v>9</v>
       </c>
@@ -1386,7 +1383,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
@@ -1395,7 +1392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" ht="17.55">
       <c r="A13" s="16" t="s">
         <v>11</v>
       </c>
@@ -1422,7 +1419,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
@@ -1431,7 +1428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" ht="17.55">
       <c r="A14" s="16" t="s">
         <v>13</v>
       </c>
@@ -1458,7 +1455,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
@@ -1467,7 +1464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" ht="17.55">
       <c r="A15" s="16" t="s">
         <v>15</v>
       </c>
@@ -1499,7 +1496,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" ht="17.55">
       <c r="A16" s="18" t="s">
         <v>16</v>
       </c>
@@ -1531,7 +1528,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" ht="17.55">
       <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
@@ -1563,7 +1560,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1613,76 +1610,76 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ13"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="N13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.65"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43">
       <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43">
       <c r="A7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43">
       <c r="A8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43">
       <c r="A9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43">
       <c r="A10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43">
       <c r="A11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43">
       <c r="A12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:43" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" ht="17.55">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1776,12 +1773,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.65"/>
   <sheetData/>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WebContent/template/template.xlsx
+++ b/WebContent/template/template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20375"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Roy.DESKTOP-80CAPLI\workspace\rosterWeb\WebContent\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\cstsang\workspace\rosterWeb\WebContent\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51363C4D-121E-4237-9A64-9074BB6F64A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2066" yWindow="4195" windowWidth="23253" windowHeight="12346"/>
+    <workbookView xWindow="2070" yWindow="4200" windowWidth="23250" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -188,15 +189,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="\+#0.##;\-#0.##"/>
+    <numFmt numFmtId="176" formatCode="\+#0.##;\-#0.##"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -236,7 +237,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -262,7 +263,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -270,7 +271,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Cambria"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="major"/>
@@ -439,7 +440,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -455,7 +456,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -512,6 +513,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -551,14 +555,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 3" xfId="1"/>
-    <cellStyle name="一般 4" xfId="2"/>
+    <cellStyle name="一般 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -684,6 +686,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -719,6 +738,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -894,70 +930,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AQ18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="AH24" sqref="AH24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.65"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.59765625" customWidth="1"/>
-    <col min="2" max="21" width="3.09765625" customWidth="1"/>
-    <col min="22" max="22" width="2.8984375" customWidth="1"/>
-    <col min="23" max="32" width="3.09765625" customWidth="1"/>
-    <col min="33" max="33" width="10.09765625" customWidth="1"/>
-    <col min="34" max="34" width="8.8984375" customWidth="1"/>
-    <col min="35" max="35" width="8.19921875" customWidth="1"/>
-    <col min="36" max="36" width="8.59765625" customWidth="1"/>
-    <col min="37" max="37" width="7.8984375" customWidth="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="2" max="21" width="3.125" customWidth="1"/>
+    <col min="22" max="22" width="2.875" customWidth="1"/>
+    <col min="23" max="32" width="3.125" customWidth="1"/>
+    <col min="33" max="33" width="10.125" customWidth="1"/>
+    <col min="34" max="34" width="8.875" customWidth="1"/>
+    <col min="35" max="35" width="8.25" customWidth="1"/>
+    <col min="36" max="36" width="8.625" customWidth="1"/>
+    <col min="37" max="37" width="7.875" customWidth="1"/>
     <col min="38" max="38" width="4.5" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="5.59765625" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="5.625" hidden="1" customWidth="1"/>
     <col min="40" max="41" width="4.5" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="3.3984375" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="6.19921875" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="3.375" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="6.25" hidden="1" customWidth="1"/>
     <col min="44" max="44" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="18.2">
+    <row r="1" spans="1:43" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
@@ -970,46 +1006,46 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
     </row>
-    <row r="2" spans="1:43" ht="17.55">
+    <row r="2" spans="1:43" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="28" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
@@ -1017,7 +1053,7 @@
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>30</v>
       </c>
@@ -1052,11 +1088,11 @@
       <c r="AD4" s="25"/>
       <c r="AE4" s="25"/>
       <c r="AF4" s="25"/>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="35"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
@@ -1064,7 +1100,7 @@
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
     </row>
-    <row r="5" spans="1:43" ht="15.85" customHeight="1">
+    <row r="5" spans="1:43" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>31</v>
       </c>
@@ -1099,16 +1135,16 @@
       <c r="AD5" s="26"/>
       <c r="AE5" s="26"/>
       <c r="AF5" s="27"/>
-      <c r="AG5" s="35" t="s">
+      <c r="AG5" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="AH5" s="35" t="s">
+      <c r="AH5" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="AI5" s="37" t="s">
+      <c r="AI5" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="AJ5" s="38"/>
+      <c r="AJ5" s="39"/>
       <c r="AK5" s="24"/>
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
@@ -1117,8 +1153,8 @@
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
     </row>
-    <row r="6" spans="1:43" ht="31.3">
-      <c r="A6" s="41" t="s">
+    <row r="6" spans="1:43" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="20"/>
@@ -1152,8 +1188,8 @@
       <c r="AD6" s="20"/>
       <c r="AE6" s="20"/>
       <c r="AF6" s="21"/>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="36"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37"/>
       <c r="AI6" s="23" t="s">
         <v>35</v>
       </c>
@@ -1182,7 +1218,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>44</v>
       </c>
@@ -1218,7 +1254,7 @@
       <c r="AE7" s="10"/>
       <c r="AF7" s="10"/>
     </row>
-    <row r="8" spans="1:43" ht="17.55">
+    <row r="8" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>1</v>
       </c>
@@ -1239,20 +1275,25 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="30" t="s">
+      <c r="S8" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-    </row>
-    <row r="9" spans="1:43" ht="17.55">
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="42"/>
+    </row>
+    <row r="9" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -1273,20 +1314,25 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="30" t="s">
+      <c r="S9" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-    </row>
-    <row r="10" spans="1:43" ht="17.55">
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="42"/>
+      <c r="AG9" s="42"/>
+    </row>
+    <row r="10" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>5</v>
       </c>
@@ -1318,7 +1364,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:43" ht="17.55">
+    <row r="11" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>6</v>
       </c>
@@ -1356,7 +1402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:43" ht="17.55">
+    <row r="12" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>9</v>
       </c>
@@ -1392,7 +1438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:43" ht="17.55">
+    <row r="13" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>11</v>
       </c>
@@ -1428,7 +1474,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:43" ht="17.55">
+    <row r="14" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>13</v>
       </c>
@@ -1464,7 +1510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:43" ht="17.55">
+    <row r="15" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>15</v>
       </c>
@@ -1496,7 +1542,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:43" ht="17.55">
+    <row r="16" spans="1:43" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>16</v>
       </c>
@@ -1528,7 +1574,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" ht="17.55">
+    <row r="17" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
@@ -1560,7 +1606,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1594,14 +1640,14 @@
   <mergeCells count="10">
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="S8:AB8"/>
-    <mergeCell ref="S9:AB9"/>
     <mergeCell ref="B1:AF1"/>
     <mergeCell ref="AG4:AK4"/>
     <mergeCell ref="AG5:AG6"/>
     <mergeCell ref="AH5:AH6"/>
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="B2:AF2"/>
+    <mergeCell ref="S8:AG8"/>
+    <mergeCell ref="S9:AG9"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1610,76 +1656,76 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AQ13"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="N13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.65"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:43" ht="17.55">
+    <row r="13" spans="1:43" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1773,12 +1819,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.65"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
